--- a/Convert2Excel/demo.xlsx
+++ b/Convert2Excel/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="33">
   <si>
     <t>0x8000</t>
   </si>
@@ -84,6 +84,36 @@
   <si>
     <t>45</t>
   </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -203,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,6 +266,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:Q74"/>
+  <dimension ref="C3:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3506,6 +3545,150 @@
         <v>8</v>
       </c>
     </row>
+    <row r="77" spans="4:17">
+      <c r="F77" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="4:17">
+      <c r="F78" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="4:17">
+      <c r="F79" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="4:17">
+      <c r="F80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7">
+      <c r="F81" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7">
+      <c r="F82" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7">
+      <c r="F83" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7">
+      <c r="F84" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7">
+      <c r="F85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7">
+      <c r="F86" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7">
+      <c r="F87" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7">
+      <c r="F88" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="F89" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="F90" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7">
+      <c r="F91" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7">
+      <c r="F92" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7">
+      <c r="F93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7">
+      <c r="F94" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Convert2Excel/demo.xlsx
+++ b/Convert2Excel/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="168">
   <si>
     <t>0x8000</t>
   </si>
@@ -470,6 +470,54 @@
   </si>
   <si>
     <t>USER</t>
+  </si>
+  <si>
+    <t>PAL / SD</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>RGB_GAIN</t>
+  </si>
+  <si>
+    <t>RGB_OFFSET</t>
+  </si>
+  <si>
+    <t>WARM</t>
+  </si>
+  <si>
+    <t>COOL</t>
+  </si>
+  <si>
+    <t>BRIGHTNESS</t>
+  </si>
+  <si>
+    <t>0SD 0</t>
+  </si>
+  <si>
+    <t>0SD 25</t>
+  </si>
+  <si>
+    <t>OSD 50</t>
+  </si>
+  <si>
+    <t>OSD 75</t>
+  </si>
+  <si>
+    <t>OSD 100</t>
+  </si>
+  <si>
+    <t>CONTRAST</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>TINT</t>
+  </si>
+  <si>
+    <t>SHARPNESS</t>
   </si>
 </sst>
 </file>
@@ -520,7 +568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +632,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92CDDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -726,40 +780,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,13 +827,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4444,120 +4510,198 @@
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="E77" s="21" t="s">
+      <c r="B77" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="22" t="s">
+      <c r="G77" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:17">
-      <c r="E78" s="21" t="s">
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G78" s="22" t="s">
+      <c r="G78" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:17">
-      <c r="E79" s="21" t="s">
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G79" s="23" t="s">
+      <c r="G79" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="E80" s="21" t="s">
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F80" s="23" t="s">
+      <c r="F80" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:15">
-      <c r="E81" s="21" t="s">
+      <c r="B81" s="21"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F81" s="23" t="s">
+      <c r="F81" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G81" s="23" t="s">
+      <c r="G81" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:15">
-      <c r="E82" s="21" t="s">
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="F82" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G82" s="23" t="s">
+      <c r="G82" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="F83" s="24" t="s">
+      <c r="B83" s="21"/>
+      <c r="C83" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="F84" s="25" t="s">
+      <c r="B84" s="21"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G84" s="25" t="s">
+      <c r="G84" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:15">
-      <c r="F85" s="25" t="s">
+      <c r="B85" s="21"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="F86" s="24" t="s">
+      <c r="B86" s="21"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G86" s="24" t="s">
+      <c r="G86" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:15">
-      <c r="F87" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G87" s="25" t="s">
+      <c r="B87" s="21"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:15">
-      <c r="F88" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G88" s="25" t="s">
+      <c r="B88" s="21"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:15">
+      <c r="B89" s="21"/>
+      <c r="C89" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="F89" s="26" t="s">
         <v>30</v>
       </c>
@@ -4566,6 +4710,12 @@
       </c>
     </row>
     <row r="90" spans="1:15">
+      <c r="B90" s="21"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26" t="s">
+        <v>97</v>
+      </c>
       <c r="F90" s="26" t="s">
         <v>2</v>
       </c>
@@ -4574,6 +4724,12 @@
       </c>
     </row>
     <row r="91" spans="1:15">
+      <c r="B91" s="21"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26" t="s">
+        <v>98</v>
+      </c>
       <c r="F91" s="26" t="s">
         <v>31</v>
       </c>
@@ -4582,6 +4738,14 @@
       </c>
     </row>
     <row r="92" spans="1:15">
+      <c r="B92" s="21"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="F92" s="26" t="s">
         <v>30</v>
       </c>
@@ -4590,6 +4754,12 @@
       </c>
     </row>
     <row r="93" spans="1:15">
+      <c r="B93" s="21"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="F93" s="26" t="s">
         <v>2</v>
       </c>
@@ -4598,6 +4768,12 @@
       </c>
     </row>
     <row r="94" spans="1:15">
+      <c r="B94" s="21"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26" t="s">
+        <v>101</v>
+      </c>
       <c r="F94" s="26" t="s">
         <v>32</v>
       </c>
@@ -4650,7 +4826,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="4:15">
+    <row r="97" spans="2:15">
+      <c r="B97" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="D97" s="30" t="s">
         <v>33</v>
       </c>
@@ -4688,7 +4870,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="4:15">
+    <row r="98" spans="2:15">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D98" s="30" t="s">
         <v>34</v>
       </c>
@@ -4726,7 +4912,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="4:15">
+    <row r="99" spans="2:15">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="D99" s="30" t="s">
         <v>35</v>
       </c>
@@ -4764,7 +4954,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="4:15">
+    <row r="100" spans="2:15">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D100" s="30" t="s">
         <v>36</v>
       </c>
@@ -4802,7 +4996,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="4:15">
+    <row r="101" spans="2:15">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="D101" s="30" t="s">
         <v>37</v>
       </c>
@@ -4840,768 +5038,856 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="4:15">
-      <c r="D102" s="31" t="s">
+    <row r="102" spans="2:15">
+      <c r="B102" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="31" t="s">
+      <c r="F102" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="31" t="s">
+      <c r="G102" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H102" s="31" t="s">
+      <c r="H102" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="31" t="s">
+      <c r="I102" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J102" s="31" t="s">
+      <c r="J102" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="31" t="s">
+      <c r="K102" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="32" t="s">
+      <c r="L102" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="M102" s="32" t="s">
+      <c r="M102" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="N102" s="32" t="s">
+      <c r="N102" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="O102" s="31" t="s">
+      <c r="O102" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="4:15">
-      <c r="D103" s="31" t="s">
+    <row r="103" spans="2:15">
+      <c r="B103" s="31"/>
+      <c r="C103" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F103" s="31" t="s">
+      <c r="F103" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G103" s="31" t="s">
+      <c r="G103" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H103" s="31" t="s">
+      <c r="H103" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I103" s="31" t="s">
+      <c r="I103" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J103" s="31" t="s">
+      <c r="J103" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K103" s="31" t="s">
+      <c r="K103" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L103" s="32" t="s">
+      <c r="L103" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="M103" s="32" t="s">
+      <c r="M103" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="N103" s="32" t="s">
+      <c r="N103" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="O103" s="31" t="s">
+      <c r="O103" s="32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="4:15">
-      <c r="D104" s="31" t="s">
+    <row r="104" spans="2:15">
+      <c r="B104" s="31"/>
+      <c r="C104" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E104" s="31" t="s">
+      <c r="E104" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F104" s="31" t="s">
+      <c r="F104" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G104" s="31" t="s">
+      <c r="G104" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="H104" s="31" t="s">
+      <c r="H104" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="I104" s="31" t="s">
+      <c r="I104" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="J104" s="31" t="s">
+      <c r="J104" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="K104" s="31" t="s">
+      <c r="K104" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="L104" s="32" t="s">
+      <c r="L104" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="M104" s="32" t="s">
+      <c r="M104" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="N104" s="32" t="s">
+      <c r="N104" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="O104" s="31" t="s">
+      <c r="O104" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="4:15">
-      <c r="D105" s="31" t="s">
+    <row r="105" spans="2:15">
+      <c r="B105" s="31"/>
+      <c r="C105" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="F105" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G105" s="31" t="s">
+      <c r="G105" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H105" s="31" t="s">
+      <c r="H105" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I105" s="31" t="s">
+      <c r="I105" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="J105" s="31" t="s">
+      <c r="J105" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="K105" s="31" t="s">
+      <c r="K105" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="L105" s="32" t="s">
+      <c r="L105" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="M105" s="32" t="s">
+      <c r="M105" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="N105" s="32" t="s">
+      <c r="N105" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="O105" s="31" t="s">
+      <c r="O105" s="32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="4:15">
-      <c r="D106" s="31" t="s">
+    <row r="106" spans="2:15">
+      <c r="B106" s="31"/>
+      <c r="C106" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D106" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="F106" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G106" s="31" t="s">
+      <c r="G106" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="H106" s="31" t="s">
+      <c r="H106" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="I106" s="31" t="s">
+      <c r="I106" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="J106" s="31" t="s">
+      <c r="J106" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K106" s="31" t="s">
+      <c r="K106" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L106" s="32" t="s">
+      <c r="L106" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="M106" s="32" t="s">
+      <c r="M106" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="N106" s="32" t="s">
+      <c r="N106" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="O106" s="31" t="s">
+      <c r="O106" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="4:15">
-      <c r="D107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="J107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="L107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="N107" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O107" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="4:15">
-      <c r="D108" s="34" t="s">
+    <row r="107" spans="2:15">
+      <c r="B107" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N107" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O107" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15">
+      <c r="B108" s="34"/>
+      <c r="C108" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E108" s="33" t="s">
+      <c r="E108" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F108" s="33" t="s">
+      <c r="F108" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="G108" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H108" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I108" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J108" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="K108" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L108" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="M108" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N108" s="33" t="s">
+      <c r="H108" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J108" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K108" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L108" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M108" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N108" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="O108" s="34" t="s">
+      <c r="O108" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="4:15">
-      <c r="D109" s="34" t="s">
+    <row r="109" spans="2:15">
+      <c r="B109" s="34"/>
+      <c r="C109" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E109" s="33" t="s">
+      <c r="E109" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F109" s="33" t="s">
+      <c r="F109" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G109" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H109" s="33" t="s">
+      <c r="H109" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I109" s="33" t="s">
+      <c r="I109" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J109" s="33" t="s">
+      <c r="J109" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K109" s="33" t="s">
+      <c r="K109" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="L109" s="33" t="s">
+      <c r="L109" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M109" s="33" t="s">
+      <c r="M109" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="N109" s="33" t="s">
+      <c r="N109" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="O109" s="34" t="s">
+      <c r="O109" s="36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="4:15">
-      <c r="D110" s="34" t="s">
+    <row r="110" spans="2:15">
+      <c r="B110" s="34"/>
+      <c r="C110" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E110" s="33" t="s">
+      <c r="E110" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F110" s="33" t="s">
+      <c r="F110" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G110" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H110" s="33" t="s">
+      <c r="H110" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I110" s="33" t="s">
+      <c r="I110" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J110" s="33" t="s">
+      <c r="J110" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="K110" s="33" t="s">
+      <c r="K110" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="L110" s="33" t="s">
+      <c r="L110" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M110" s="33" t="s">
+      <c r="M110" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="N110" s="33" t="s">
+      <c r="N110" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="O110" s="34" t="s">
+      <c r="O110" s="36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="4:15">
-      <c r="D111" s="34" t="s">
+    <row r="111" spans="2:15">
+      <c r="B111" s="34"/>
+      <c r="C111" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E111" s="33" t="s">
+      <c r="E111" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F111" s="33" t="s">
+      <c r="F111" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G111" s="33" t="s">
+      <c r="G111" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H111" s="33" t="s">
+      <c r="H111" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I111" s="33" t="s">
+      <c r="I111" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J111" s="33" t="s">
+      <c r="J111" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="K111" s="33" t="s">
+      <c r="K111" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="L111" s="33" t="s">
+      <c r="L111" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="M111" s="33" t="s">
+      <c r="M111" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="N111" s="33" t="s">
+      <c r="N111" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="O111" s="34" t="s">
+      <c r="O111" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="4:15">
-      <c r="D112" s="35" t="s">
+    <row r="112" spans="2:15">
+      <c r="B112" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E112" s="35" t="s">
+      <c r="E112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F112" s="35" t="s">
+      <c r="F112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G112" s="35" t="s">
+      <c r="G112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H112" s="35" t="s">
+      <c r="H112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I112" s="35" t="s">
+      <c r="I112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J112" s="35" t="s">
+      <c r="J112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K112" s="35" t="s">
+      <c r="K112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="L112" s="35" t="s">
+      <c r="L112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="M112" s="35" t="s">
+      <c r="M112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="N112" s="35" t="s">
+      <c r="N112" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O112" s="35" t="s">
+      <c r="O112" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="4:15">
-      <c r="D113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="J113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="L113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="M113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="N113" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="O113" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="4:15">
-      <c r="D114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="H114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="I114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="L114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="M114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="N114" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="O114" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="4:15">
-      <c r="D115" s="35" t="s">
+    <row r="113" spans="2:15">
+      <c r="B113" s="37"/>
+      <c r="C113" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="N113" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="O113" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15">
+      <c r="B114" s="37"/>
+      <c r="C114" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="N114" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="O114" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15">
+      <c r="B115" s="37"/>
+      <c r="C115" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="35" t="s">
+      <c r="E115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="35" t="s">
+      <c r="F115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="35" t="s">
+      <c r="G115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H115" s="35" t="s">
+      <c r="H115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I115" s="35" t="s">
+      <c r="I115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J115" s="35" t="s">
+      <c r="J115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K115" s="35" t="s">
+      <c r="K115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L115" s="35" t="s">
+      <c r="L115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M115" s="35" t="s">
+      <c r="M115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N115" s="35" t="s">
+      <c r="N115" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="O115" s="35" t="s">
+      <c r="O115" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="4:15">
-      <c r="D116" s="35" t="s">
+    <row r="116" spans="2:15">
+      <c r="B116" s="37"/>
+      <c r="C116" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E116" s="35" t="s">
+      <c r="E116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F116" s="35" t="s">
+      <c r="F116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G116" s="35" t="s">
+      <c r="G116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H116" s="35" t="s">
+      <c r="H116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="I116" s="35" t="s">
+      <c r="I116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J116" s="35" t="s">
+      <c r="J116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K116" s="35" t="s">
+      <c r="K116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="L116" s="35" t="s">
+      <c r="L116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M116" s="35" t="s">
+      <c r="M116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="N116" s="35" t="s">
+      <c r="N116" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="O116" s="35" t="s">
+      <c r="O116" s="38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="4:15">
-      <c r="D117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="J117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="N117" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O117" s="36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="4:15">
-      <c r="D118" s="37" t="s">
+    <row r="117" spans="2:15">
+      <c r="B117" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="J117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="K117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="N117" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O117" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15">
+      <c r="B118" s="39"/>
+      <c r="C118" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E118" s="36" t="s">
+      <c r="E118" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F118" s="36" t="s">
+      <c r="F118" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G118" s="36" t="s">
+      <c r="G118" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H118" s="36" t="s">
+      <c r="H118" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I118" s="36" t="s">
+      <c r="I118" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J118" s="36" t="s">
+      <c r="J118" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K118" s="36" t="s">
+      <c r="K118" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L118" s="36" t="s">
+      <c r="L118" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="M118" s="36" t="s">
+      <c r="M118" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="N118" s="36" t="s">
+      <c r="N118" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O118" s="36" t="s">
+      <c r="O118" s="40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="4:15">
-      <c r="D119" s="37" t="s">
+    <row r="119" spans="2:15">
+      <c r="B119" s="39"/>
+      <c r="C119" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E119" s="36" t="s">
+      <c r="E119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F119" s="36" t="s">
+      <c r="F119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G119" s="36" t="s">
+      <c r="G119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H119" s="36" t="s">
+      <c r="H119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I119" s="36" t="s">
+      <c r="I119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J119" s="36" t="s">
+      <c r="J119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K119" s="36" t="s">
+      <c r="K119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="L119" s="36" t="s">
+      <c r="L119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="M119" s="36" t="s">
+      <c r="M119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="N119" s="36" t="s">
+      <c r="N119" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="O119" s="36" t="s">
+      <c r="O119" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="4:15">
-      <c r="D120" s="37" t="s">
+    <row r="120" spans="2:15">
+      <c r="B120" s="39"/>
+      <c r="C120" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E120" s="36" t="s">
+      <c r="E120" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F120" s="36" t="s">
+      <c r="F120" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G120" s="36" t="s">
+      <c r="G120" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H120" s="36" t="s">
+      <c r="H120" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I120" s="36" t="s">
+      <c r="I120" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J120" s="36" t="s">
+      <c r="J120" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="K120" s="36" t="s">
+      <c r="K120" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L120" s="36" t="s">
+      <c r="L120" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="M120" s="36" t="s">
+      <c r="M120" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="N120" s="36" t="s">
+      <c r="N120" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O120" s="36" t="s">
+      <c r="O120" s="40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="4:15">
-      <c r="D121" s="36" t="s">
+    <row r="121" spans="2:15">
+      <c r="B121" s="39"/>
+      <c r="C121" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E121" s="36" t="s">
+      <c r="E121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F121" s="36" t="s">
+      <c r="F121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G121" s="36" t="s">
+      <c r="G121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H121" s="36" t="s">
+      <c r="H121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="I121" s="36" t="s">
+      <c r="I121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="J121" s="36" t="s">
+      <c r="J121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="K121" s="36" t="s">
+      <c r="K121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L121" s="36" t="s">
+      <c r="L121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="M121" s="36" t="s">
+      <c r="M121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="N121" s="36" t="s">
+      <c r="N121" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="O121" s="36" t="s">
+      <c r="O121" s="40" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="26">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B76:E76"/>
     <mergeCell ref="B96:C96"/>
@@ -5613,6 +5899,21 @@
     <mergeCell ref="B51:B58"/>
     <mergeCell ref="B59:B66"/>
     <mergeCell ref="B67:B74"/>
+    <mergeCell ref="B77:B94"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B117:B121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Convert2Excel/demo.xlsx
+++ b/Convert2Excel/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="375">
   <si>
     <t>0x6f</t>
   </si>
@@ -560,16 +560,602 @@
   </si>
   <si>
     <t>0x18</t>
+  </si>
+  <si>
+    <t>DEFAULT PRESCALE 0dB  --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Unused</t>
+  </si>
+  <si>
+    <t>SETTING PRESCALE</t>
+  </si>
+  <si>
+    <t>SOURCE -&gt;</t>
+  </si>
+  <si>
+    <t>DTV</t>
+  </si>
+  <si>
+    <t>ATV</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>AV2</t>
+  </si>
+  <si>
+    <t>YPBPR</t>
+  </si>
+  <si>
+    <t>VGA</t>
+  </si>
+  <si>
+    <t>HDMI</t>
+  </si>
+  <si>
+    <t>HDMI2</t>
+  </si>
+  <si>
+    <t>HDMI3</t>
+  </si>
+  <si>
+    <t>HDMI4</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>SCART</t>
+  </si>
+  <si>
+    <t>STV</t>
+  </si>
+  <si>
+    <t>SETTING EQUALIZER</t>
+  </si>
+  <si>
+    <t>MODE -&gt;</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>NEWS</t>
+  </si>
+  <si>
+    <t>SPORTS</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>SETTING VOLUME NONLINEAR</t>
+  </si>
+  <si>
+    <t>SETTING EQUALIZER NONLINEAR</t>
+  </si>
+  <si>
+    <t>SOURCE --&gt;</t>
+  </si>
+  <si>
+    <t>SETTING DRC</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>DEFAULT_AVC_THRESHOLD</t>
+  </si>
+  <si>
+    <t>SETTING AVL</t>
+  </si>
+  <si>
+    <t>AV1</t>
+  </si>
+  <si>
+    <t>AV3</t>
+  </si>
+  <si>
+    <t>YPBPR1</t>
+  </si>
+  <si>
+    <t>YPBPR2</t>
+  </si>
+  <si>
+    <t>HDMI1</t>
+  </si>
+  <si>
+    <t>VOLUME TABLE</t>
+  </si>
+  <si>
+    <t>SETTING_SUBWOOFER_LOW</t>
+  </si>
+  <si>
+    <t>DISPLAY -&gt;</t>
+  </si>
+  <si>
+    <t>SETTING_SUBWOOFER_HIGH</t>
+  </si>
+  <si>
+    <t>LOUDNESS OFFSET TABLE</t>
+  </si>
+  <si>
+    <t>VOL LEVEL</t>
+  </si>
+  <si>
+    <t>LowSubw</t>
+  </si>
+  <si>
+    <t>LowTreble</t>
+  </si>
+  <si>
+    <t>HighSubw</t>
+  </si>
+  <si>
+    <t>HighTreble</t>
+  </si>
+  <si>
+    <t>SETTING PEQ</t>
+  </si>
+  <si>
+    <t>BAND1</t>
+  </si>
+  <si>
+    <t>BAND2</t>
+  </si>
+  <si>
+    <t>BAND3</t>
+  </si>
+  <si>
+    <t>BAND4</t>
+  </si>
+  <si>
+    <t>BAND5</t>
+  </si>
+  <si>
+    <t>SETTING HPF</t>
+  </si>
+  <si>
+    <t>SETTING PRE VOLUME</t>
+  </si>
+  <si>
+    <t>REGISTER</t>
+  </si>
+  <si>
+    <t>PWM1_PERIOD</t>
+  </si>
+  <si>
+    <t>INIT_PWM1_DUTY</t>
+  </si>
+  <si>
+    <t>PWM1_DIV</t>
+  </si>
+  <si>
+    <t>MAINSPEAKER</t>
+  </si>
+  <si>
+    <t>LINEOUT_LO</t>
+  </si>
+  <si>
+    <t>LINEOUT_HI</t>
+  </si>
+  <si>
+    <t>120HZ</t>
+  </si>
+  <si>
+    <t>500HZ</t>
+  </si>
+  <si>
+    <t>1_5KHZ</t>
+  </si>
+  <si>
+    <t>5KHZ</t>
+  </si>
+  <si>
+    <t>10KHZ</t>
+  </si>
+  <si>
+    <t>TREBLE</t>
+  </si>
+  <si>
+    <t>BASS</t>
+  </si>
+  <si>
+    <t>OSD 0</t>
+  </si>
+  <si>
+    <t>0SD 25</t>
+  </si>
+  <si>
+    <t>OSD 50</t>
+  </si>
+  <si>
+    <t>OSD 75</t>
+  </si>
+  <si>
+    <t>OSD 100</t>
+  </si>
+  <si>
+    <t>DRC_ENABLE</t>
+  </si>
+  <si>
+    <t>DRC_THRESHOLD</t>
+  </si>
+  <si>
+    <t>VOL 0</t>
+  </si>
+  <si>
+    <t>VOL 1</t>
+  </si>
+  <si>
+    <t>VOL 2</t>
+  </si>
+  <si>
+    <t>VOL 3</t>
+  </si>
+  <si>
+    <t>VOL 4</t>
+  </si>
+  <si>
+    <t>VOL 5</t>
+  </si>
+  <si>
+    <t>VOL 6</t>
+  </si>
+  <si>
+    <t>VOL 7</t>
+  </si>
+  <si>
+    <t>VOL 8</t>
+  </si>
+  <si>
+    <t>VOL 9</t>
+  </si>
+  <si>
+    <t>VOL 10</t>
+  </si>
+  <si>
+    <t>VOL 11</t>
+  </si>
+  <si>
+    <t>VOL 12</t>
+  </si>
+  <si>
+    <t>VOL 13</t>
+  </si>
+  <si>
+    <t>VOL 14</t>
+  </si>
+  <si>
+    <t>VOL 15</t>
+  </si>
+  <si>
+    <t>VOL 16</t>
+  </si>
+  <si>
+    <t>VOL 17</t>
+  </si>
+  <si>
+    <t>VOL 18</t>
+  </si>
+  <si>
+    <t>VOL 19</t>
+  </si>
+  <si>
+    <t>VOL 20</t>
+  </si>
+  <si>
+    <t>VOL 21</t>
+  </si>
+  <si>
+    <t>VOL 22</t>
+  </si>
+  <si>
+    <t>VOL 23</t>
+  </si>
+  <si>
+    <t>VOL 24</t>
+  </si>
+  <si>
+    <t>VOL 25</t>
+  </si>
+  <si>
+    <t>VOL 26</t>
+  </si>
+  <si>
+    <t>VOL 27</t>
+  </si>
+  <si>
+    <t>VOL 28</t>
+  </si>
+  <si>
+    <t>VOL 29</t>
+  </si>
+  <si>
+    <t>VOL 30</t>
+  </si>
+  <si>
+    <t>VOL 31</t>
+  </si>
+  <si>
+    <t>VOL 32</t>
+  </si>
+  <si>
+    <t>VOL 33</t>
+  </si>
+  <si>
+    <t>VOL 34</t>
+  </si>
+  <si>
+    <t>VOL 35</t>
+  </si>
+  <si>
+    <t>VOL 36</t>
+  </si>
+  <si>
+    <t>VOL 37</t>
+  </si>
+  <si>
+    <t>VOL 38</t>
+  </si>
+  <si>
+    <t>VOL 39</t>
+  </si>
+  <si>
+    <t>VOL 40</t>
+  </si>
+  <si>
+    <t>VOL 41</t>
+  </si>
+  <si>
+    <t>VOL 42</t>
+  </si>
+  <si>
+    <t>VOL 43</t>
+  </si>
+  <si>
+    <t>VOL 44</t>
+  </si>
+  <si>
+    <t>VOL 45</t>
+  </si>
+  <si>
+    <t>VOL 46</t>
+  </si>
+  <si>
+    <t>VOL 47</t>
+  </si>
+  <si>
+    <t>VOL 48</t>
+  </si>
+  <si>
+    <t>VOL 49</t>
+  </si>
+  <si>
+    <t>VOL 50</t>
+  </si>
+  <si>
+    <t>VOL 51</t>
+  </si>
+  <si>
+    <t>VOL 52</t>
+  </si>
+  <si>
+    <t>VOL 53</t>
+  </si>
+  <si>
+    <t>VOL 54</t>
+  </si>
+  <si>
+    <t>VOL 55</t>
+  </si>
+  <si>
+    <t>VOL 56</t>
+  </si>
+  <si>
+    <t>VOL 57</t>
+  </si>
+  <si>
+    <t>VOL 58</t>
+  </si>
+  <si>
+    <t>VOL 59</t>
+  </si>
+  <si>
+    <t>VOL 60</t>
+  </si>
+  <si>
+    <t>VOL 61</t>
+  </si>
+  <si>
+    <t>VOL 62</t>
+  </si>
+  <si>
+    <t>VOL 63</t>
+  </si>
+  <si>
+    <t>VOL 64</t>
+  </si>
+  <si>
+    <t>VOL 65</t>
+  </si>
+  <si>
+    <t>VOL 66</t>
+  </si>
+  <si>
+    <t>VOL 67</t>
+  </si>
+  <si>
+    <t>VOL 68</t>
+  </si>
+  <si>
+    <t>VOL 69</t>
+  </si>
+  <si>
+    <t>VOL 70</t>
+  </si>
+  <si>
+    <t>VOL 71</t>
+  </si>
+  <si>
+    <t>VOL 72</t>
+  </si>
+  <si>
+    <t>VOL 73</t>
+  </si>
+  <si>
+    <t>VOL 74</t>
+  </si>
+  <si>
+    <t>VOL 75</t>
+  </si>
+  <si>
+    <t>VOL 76</t>
+  </si>
+  <si>
+    <t>VOL 77</t>
+  </si>
+  <si>
+    <t>VOL 78</t>
+  </si>
+  <si>
+    <t>VOL 79</t>
+  </si>
+  <si>
+    <t>VOL 80</t>
+  </si>
+  <si>
+    <t>VOL 81</t>
+  </si>
+  <si>
+    <t>VOL 82</t>
+  </si>
+  <si>
+    <t>VOL 83</t>
+  </si>
+  <si>
+    <t>VOL 84</t>
+  </si>
+  <si>
+    <t>VOL 85</t>
+  </si>
+  <si>
+    <t>VOL 86</t>
+  </si>
+  <si>
+    <t>VOL 87</t>
+  </si>
+  <si>
+    <t>VOL 88</t>
+  </si>
+  <si>
+    <t>VOL 89</t>
+  </si>
+  <si>
+    <t>VOL 90</t>
+  </si>
+  <si>
+    <t>VOL 91</t>
+  </si>
+  <si>
+    <t>VOL 92</t>
+  </si>
+  <si>
+    <t>VOL 93</t>
+  </si>
+  <si>
+    <t>VOL 94</t>
+  </si>
+  <si>
+    <t>VOL 95</t>
+  </si>
+  <si>
+    <t>VOL 96</t>
+  </si>
+  <si>
+    <t>VOL 97</t>
+  </si>
+  <si>
+    <t>VOL 98</t>
+  </si>
+  <si>
+    <t>VOL 99</t>
+  </si>
+  <si>
+    <t>VOL 100</t>
+  </si>
+  <si>
+    <t>(AVC ENABLE - OFF)</t>
+  </si>
+  <si>
+    <t>VALUE --&gt;</t>
+  </si>
+  <si>
+    <t>(AVC ENABLE - ON)</t>
+  </si>
+  <si>
+    <t>GAIN</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Q_VALUE</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>0x112D58</t>
+  </si>
+  <si>
+    <t>0x112D5A</t>
+  </si>
+  <si>
+    <t>0x112D5C</t>
+  </si>
+  <si>
+    <t>0x112D5E</t>
+  </si>
+  <si>
+    <t>( 0 = OFF; 1 = ON )</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -588,8 +1174,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,7 +1199,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +1229,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE26B0A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF948A54"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +1289,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92CDDC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -658,7 +1307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF538DD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,61 +1357,160 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,7 +1806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q213"/>
+  <dimension ref="A2:Q213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1071,3726 +1831,4755 @@
     <col min="17" max="17" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="C5" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:16">
+      <c r="B6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:16">
+      <c r="B7" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="C11" s="4" t="s">
+      <c r="G10" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:16">
+      <c r="B12" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:16">
+      <c r="B13" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="s">
+    <row r="14" spans="1:16">
+      <c r="B14" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="C15" s="4" t="s">
+      <c r="G14" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="1:16">
+      <c r="B16" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="3:17">
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:17">
-      <c r="C20" s="4" t="s">
+    <row r="18" spans="1:17">
+      <c r="A18" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="B20" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:17">
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="1:17">
+      <c r="B21" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="3:17">
-      <c r="C22" s="4" t="s">
+    <row r="22" spans="1:17">
+      <c r="B22" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="3:17">
-      <c r="C23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
+    <row r="23" spans="1:17">
+      <c r="B23" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="3:17">
-      <c r="D26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17">
-      <c r="D27" s="4" t="s">
+    <row r="25" spans="1:17">
+      <c r="A25" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" s="14"/>
+      <c r="C27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="H27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="I27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="J27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="K27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="L27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="M27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="N27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="3:17">
-      <c r="D28" s="4" t="s">
+    <row r="28" spans="1:17">
+      <c r="B28" s="14"/>
+      <c r="C28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="H28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="I28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="J28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="K28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="L28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="M28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="N28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="P28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="3:17">
-      <c r="D29" s="4" t="s">
+    <row r="29" spans="1:17">
+      <c r="B29" s="14"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="G29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="H29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="I29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="J29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="K29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="L29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="M29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="N29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:17">
-      <c r="D30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N30" s="4" t="s">
+    <row r="30" spans="1:17">
+      <c r="B30" s="14"/>
+      <c r="C30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17">
-      <c r="D31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17">
-      <c r="D32" s="4" t="s">
+      <c r="Q30" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="4:17">
-      <c r="D33" s="4" t="s">
+    <row r="33" spans="2:17">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="4:17">
-      <c r="D34" s="4" t="s">
+    <row r="34" spans="2:17">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="4:17">
-      <c r="D35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O35" s="7" t="s">
+    <row r="35" spans="2:17">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q35" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="4:17">
-      <c r="D36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="4:17">
-      <c r="D37" s="4" t="s">
+      <c r="Q35" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="O37" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="P37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="10" t="s">
+      <c r="Q37" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="4:17">
-      <c r="D38" s="4" t="s">
+    <row r="38" spans="2:17">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O38" s="9" t="s">
+      <c r="O38" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="P38" s="9" t="s">
+      <c r="P38" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q38" s="10" t="s">
+      <c r="Q38" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="4:17">
-      <c r="D39" s="4" t="s">
+    <row r="39" spans="2:17">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="O39" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="P39" s="9" t="s">
+      <c r="P39" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q39" s="10" t="s">
+      <c r="Q39" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="4:17">
-      <c r="D40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="9" t="s">
+    <row r="40" spans="2:17">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="4:17">
-      <c r="D41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="4:17">
-      <c r="D42" s="4" t="s">
+      <c r="P40" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="N42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="12" t="s">
+      <c r="Q42" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="4:17">
-      <c r="D43" s="4" t="s">
+    <row r="43" spans="2:17">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="N43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O43" s="11" t="s">
+      <c r="O43" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="P43" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q43" s="12" t="s">
+      <c r="Q43" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="4:17">
-      <c r="D44" s="4" t="s">
+    <row r="44" spans="2:17">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="N44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O44" s="11" t="s">
+      <c r="O44" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q44" s="12" t="s">
+      <c r="Q44" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="4:17">
-      <c r="D45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="4:17">
-      <c r="D46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q46" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="4:17">
-      <c r="D47" s="4" t="s">
+    <row r="45" spans="2:17">
+      <c r="B45" s="23"/>
+      <c r="C45" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O45" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q45" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O46" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="F47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="G47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="H47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="I47" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="J47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="K47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="L47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="M47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O47" s="13" t="s">
+      <c r="N47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P47" s="13" t="s">
+      <c r="O47" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q47" s="13" t="s">
+      <c r="P47" s="25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="4:17">
-      <c r="D48" s="4" t="s">
+      <c r="Q47" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="E48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="F48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="G48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="H48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="I48" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="K48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="L48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="M48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O48" s="13" t="s">
+      <c r="N48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P48" s="13" t="s">
+      <c r="O48" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Q48" s="13" t="s">
+      <c r="P48" s="25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="3:17">
-      <c r="D49" s="4" t="s">
+      <c r="Q48" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="E49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="G49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="H49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="I49" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="J49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="K49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="L49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="M49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O49" s="13" t="s">
+      <c r="N49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P49" s="13" t="s">
+      <c r="O49" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q49" s="13" t="s">
+      <c r="P49" s="25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="3:17">
-      <c r="D50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P50" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q50" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17">
-      <c r="C53" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="3:17">
-      <c r="C54" s="14" t="s">
+      <c r="Q49" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="B50" s="25"/>
+      <c r="C50" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P50" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="B53" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="B54" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="3:17">
-      <c r="C57" s="15" t="s">
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J56" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K56" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="L56" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="M56" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="N56" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="O56" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="P56" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G57" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J57" s="15" t="s">
+      <c r="J57" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K57" s="15" t="s">
+      <c r="K57" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="L57" s="15" t="s">
+      <c r="L57" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="M57" s="15" t="s">
+      <c r="M57" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="N57" s="16" t="s">
+      <c r="N57" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="O57" s="16" t="s">
+      <c r="O57" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="P57" s="15" t="s">
+      <c r="P57" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="3:17">
-      <c r="C60" s="8" t="s">
+    <row r="59" spans="1:17">
+      <c r="A59" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O59" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="C60" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="K60" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="M60" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N60" s="7" t="s">
+      <c r="N60" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O60" s="7" t="s">
+      <c r="O60" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="P60" s="8" t="s">
+      <c r="P60" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="3:17">
-      <c r="C64" s="17" t="s">
+    <row r="63" spans="1:17">
+      <c r="A63" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="B64" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="3:7">
-      <c r="C65" s="17" t="s">
+    <row r="65" spans="2:7">
+      <c r="B65" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G65" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="3:7">
-      <c r="C66" s="17" t="s">
+    <row r="66" spans="2:7">
+      <c r="B66" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C66" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="3:7">
-      <c r="C67" s="17" t="s">
+    <row r="67" spans="2:7">
+      <c r="B67" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="17" t="s">
+      <c r="G67" s="39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="3:7">
-      <c r="C68" s="17" t="s">
+    <row r="68" spans="2:7">
+      <c r="B68" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="3:7">
-      <c r="C69" s="17" t="s">
+    <row r="69" spans="2:7">
+      <c r="B69" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G69" s="17" t="s">
+      <c r="G69" s="39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="3:7">
-      <c r="C70" s="17" t="s">
+    <row r="70" spans="2:7">
+      <c r="B70" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="G70" s="39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="3:7">
-      <c r="C71" s="17" t="s">
+    <row r="71" spans="2:7">
+      <c r="B71" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G71" s="17" t="s">
+      <c r="G71" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="3:7">
-      <c r="C72" s="17" t="s">
+    <row r="72" spans="2:7">
+      <c r="B72" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F72" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G72" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="3:7">
-      <c r="C73" s="17" t="s">
+    <row r="73" spans="2:7">
+      <c r="B73" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G73" s="17" t="s">
+      <c r="G73" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="3:7">
-      <c r="C74" s="17" t="s">
+    <row r="74" spans="2:7">
+      <c r="B74" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="3:7">
-      <c r="C75" s="17" t="s">
+    <row r="75" spans="2:7">
+      <c r="B75" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G75" s="17" t="s">
+      <c r="G75" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="3:7">
-      <c r="C76" s="17" t="s">
+    <row r="76" spans="2:7">
+      <c r="B76" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C76" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G76" s="17" t="s">
+      <c r="G76" s="39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="3:7">
-      <c r="C77" s="17" t="s">
+    <row r="77" spans="2:7">
+      <c r="B77" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="F77" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="G77" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="3:7">
-      <c r="C78" s="17" t="s">
+    <row r="78" spans="2:7">
+      <c r="B78" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G78" s="17" t="s">
+      <c r="G78" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="3:7">
-      <c r="C79" s="17" t="s">
+    <row r="79" spans="2:7">
+      <c r="B79" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F79" s="17" t="s">
+      <c r="F79" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G79" s="17" t="s">
+      <c r="G79" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="3:7">
-      <c r="C80" s="17" t="s">
+    <row r="80" spans="2:7">
+      <c r="B80" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C80" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F80" s="17" t="s">
+      <c r="F80" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="G80" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="3:7">
-      <c r="C81" s="17" t="s">
+    <row r="81" spans="2:7">
+      <c r="B81" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G81" s="17" t="s">
+      <c r="G81" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="3:7">
-      <c r="C82" s="17" t="s">
+    <row r="82" spans="2:7">
+      <c r="B82" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F82" s="17" t="s">
+      <c r="F82" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G82" s="17" t="s">
+      <c r="G82" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="3:7">
-      <c r="C83" s="17" t="s">
+    <row r="83" spans="2:7">
+      <c r="B83" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C83" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F83" s="17" t="s">
+      <c r="F83" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G83" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="3:7">
-      <c r="C84" s="17" t="s">
+    <row r="84" spans="2:7">
+      <c r="B84" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="G84" s="39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="3:7">
-      <c r="C85" s="17" t="s">
+    <row r="85" spans="2:7">
+      <c r="B85" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F85" s="17" t="s">
+      <c r="F85" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="17" t="s">
+      <c r="G85" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="3:7">
-      <c r="C86" s="17" t="s">
+    <row r="86" spans="2:7">
+      <c r="B86" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="F86" s="17" t="s">
+      <c r="F86" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G86" s="17" t="s">
+      <c r="G86" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="3:7">
-      <c r="C87" s="17" t="s">
+    <row r="87" spans="2:7">
+      <c r="B87" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F87" s="17" t="s">
+      <c r="F87" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G87" s="17" t="s">
+      <c r="G87" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="3:7">
-      <c r="C88" s="17" t="s">
+    <row r="88" spans="2:7">
+      <c r="B88" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C88" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F88" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G88" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="3:7">
-      <c r="C89" s="17" t="s">
+    <row r="89" spans="2:7">
+      <c r="B89" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C89" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E89" s="17" t="s">
+      <c r="E89" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F89" s="17" t="s">
+      <c r="F89" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="3:7">
-      <c r="C90" s="17" t="s">
+    <row r="90" spans="2:7">
+      <c r="B90" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F90" s="17" t="s">
+      <c r="F90" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G90" s="39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="3:7">
-      <c r="C91" s="17" t="s">
+    <row r="91" spans="2:7">
+      <c r="B91" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D91" s="17" t="s">
+      <c r="D91" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E91" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F91" s="17" t="s">
+      <c r="F91" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" s="39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="3:7">
-      <c r="C92" s="17" t="s">
+    <row r="92" spans="2:7">
+      <c r="B92" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D92" s="17" t="s">
+      <c r="D92" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="17" t="s">
+      <c r="F92" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G92" s="39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="3:7">
-      <c r="C93" s="17" t="s">
+    <row r="93" spans="2:7">
+      <c r="B93" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="D93" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="E93" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="F93" s="17" t="s">
+      <c r="F93" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G93" s="39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="3:7">
-      <c r="C94" s="17" t="s">
+    <row r="94" spans="2:7">
+      <c r="B94" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="D94" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="F94" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G94" s="17" t="s">
+      <c r="G94" s="39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="3:7">
-      <c r="C95" s="17" t="s">
+    <row r="95" spans="2:7">
+      <c r="B95" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="F95" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G95" s="17" t="s">
+      <c r="G95" s="39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="3:7">
-      <c r="C96" s="17" t="s">
+    <row r="96" spans="2:7">
+      <c r="B96" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F96" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G96" s="39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="3:7">
-      <c r="C97" s="17" t="s">
+    <row r="97" spans="2:7">
+      <c r="B97" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G97" s="17" t="s">
+      <c r="G97" s="39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="3:7">
-      <c r="C98" s="17" t="s">
+    <row r="98" spans="2:7">
+      <c r="B98" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="F98" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G98" s="17" t="s">
+      <c r="G98" s="39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="3:7">
-      <c r="C99" s="17" t="s">
+    <row r="99" spans="2:7">
+      <c r="B99" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="G99" s="39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="3:7">
-      <c r="C100" s="17" t="s">
+    <row r="100" spans="2:7">
+      <c r="B100" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F100" s="17" t="s">
+      <c r="F100" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G100" s="17" t="s">
+      <c r="G100" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="3:7">
-      <c r="C101" s="17" t="s">
+    <row r="101" spans="2:7">
+      <c r="B101" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C101" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="F101" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G101" s="17" t="s">
+      <c r="G101" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="3:7">
-      <c r="C102" s="17" t="s">
+    <row r="102" spans="2:7">
+      <c r="B102" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C102" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D102" s="17" t="s">
+      <c r="D102" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="F102" s="17" t="s">
+      <c r="F102" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G102" s="17" t="s">
+      <c r="G102" s="39" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="3:7">
-      <c r="C103" s="17" t="s">
+    <row r="103" spans="2:7">
+      <c r="B103" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="C103" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="G103" s="17" t="s">
+      <c r="G103" s="39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="3:7">
-      <c r="C104" s="17" t="s">
+    <row r="104" spans="2:7">
+      <c r="B104" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D104" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E104" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F104" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G104" s="17" t="s">
+      <c r="G104" s="39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="3:7">
-      <c r="C105" s="17" t="s">
+    <row r="105" spans="2:7">
+      <c r="B105" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C105" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D105" s="17" t="s">
+      <c r="D105" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F105" s="17" t="s">
+      <c r="F105" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G105" s="17" t="s">
+      <c r="G105" s="39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="3:7">
-      <c r="C106" s="17" t="s">
+    <row r="106" spans="2:7">
+      <c r="B106" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C106" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D106" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F106" s="17" t="s">
+      <c r="F106" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G106" s="17" t="s">
+      <c r="G106" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="3:7">
-      <c r="C107" s="17" t="s">
+    <row r="107" spans="2:7">
+      <c r="B107" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F107" s="17" t="s">
+      <c r="F107" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="G107" s="17" t="s">
+      <c r="G107" s="39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="3:7">
-      <c r="C108" s="17" t="s">
+    <row r="108" spans="2:7">
+      <c r="B108" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="C108" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D108" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E108" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F108" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="G108" s="17" t="s">
+      <c r="G108" s="39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="3:7">
-      <c r="C109" s="17" t="s">
+    <row r="109" spans="2:7">
+      <c r="B109" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C109" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D109" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E109" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F109" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="G109" s="39" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="3:7">
-      <c r="C110" s="17" t="s">
+    <row r="110" spans="2:7">
+      <c r="B110" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C110" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D110" s="17" t="s">
+      <c r="D110" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E110" s="17" t="s">
+      <c r="E110" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F110" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="G110" s="17" t="s">
+      <c r="G110" s="39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="3:7">
-      <c r="C111" s="17" t="s">
+    <row r="111" spans="2:7">
+      <c r="B111" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E111" s="17" t="s">
+      <c r="E111" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="F111" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="G111" s="17" t="s">
+      <c r="G111" s="39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="3:7">
-      <c r="C112" s="17" t="s">
+    <row r="112" spans="2:7">
+      <c r="B112" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C112" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D112" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E112" s="17" t="s">
+      <c r="E112" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F112" s="17" t="s">
+      <c r="F112" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="G112" s="17" t="s">
+      <c r="G112" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="3:7">
-      <c r="C113" s="17" t="s">
+    <row r="113" spans="2:7">
+      <c r="B113" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="C113" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="D113" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E113" s="17" t="s">
+      <c r="E113" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F113" s="17" t="s">
+      <c r="F113" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="G113" s="17" t="s">
+      <c r="G113" s="39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="3:7">
-      <c r="C114" s="17" t="s">
+    <row r="114" spans="2:7">
+      <c r="B114" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D114" s="17" t="s">
+      <c r="D114" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E114" s="17" t="s">
+      <c r="E114" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F114" s="17" t="s">
+      <c r="F114" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="G114" s="17" t="s">
+      <c r="G114" s="39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="3:7">
-      <c r="C115" s="17" t="s">
+    <row r="115" spans="2:7">
+      <c r="B115" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="C115" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="E115" s="17" t="s">
+      <c r="E115" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F115" s="17" t="s">
+      <c r="F115" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="G115" s="17" t="s">
+      <c r="G115" s="39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="3:7">
-      <c r="C116" s="17" t="s">
+    <row r="116" spans="2:7">
+      <c r="B116" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D116" s="17" t="s">
+      <c r="D116" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E116" s="17" t="s">
+      <c r="E116" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F116" s="17" t="s">
+      <c r="F116" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G116" s="17" t="s">
+      <c r="G116" s="39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="3:7">
-      <c r="C117" s="17" t="s">
+    <row r="117" spans="2:7">
+      <c r="B117" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D117" s="17" t="s">
+      <c r="D117" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F117" s="17" t="s">
+      <c r="F117" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="G117" s="17" t="s">
+      <c r="G117" s="39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="3:7">
-      <c r="C118" s="17" t="s">
+    <row r="118" spans="2:7">
+      <c r="B118" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C118" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D118" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E118" s="17" t="s">
+      <c r="E118" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F118" s="17" t="s">
+      <c r="F118" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="G118" s="17" t="s">
+      <c r="G118" s="39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="3:7">
-      <c r="C119" s="17" t="s">
+    <row r="119" spans="2:7">
+      <c r="B119" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C119" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D119" s="17" t="s">
+      <c r="D119" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="E119" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="17" t="s">
+      <c r="F119" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="G119" s="17" t="s">
+      <c r="G119" s="39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="3:7">
-      <c r="C120" s="17" t="s">
+    <row r="120" spans="2:7">
+      <c r="B120" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C120" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D120" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E120" s="17" t="s">
+      <c r="E120" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F120" s="17" t="s">
+      <c r="F120" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="G120" s="17" t="s">
+      <c r="G120" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="3:7">
-      <c r="C121" s="17" t="s">
+    <row r="121" spans="2:7">
+      <c r="B121" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="D121" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="E121" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="F121" s="17" t="s">
+      <c r="F121" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G121" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="3:7">
-      <c r="C122" s="17" t="s">
+    <row r="122" spans="2:7">
+      <c r="B122" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D122" s="17" t="s">
+      <c r="D122" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E122" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F122" s="17" t="s">
+      <c r="F122" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G122" s="17" t="s">
+      <c r="G122" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="3:7">
-      <c r="C123" s="17" t="s">
+    <row r="123" spans="2:7">
+      <c r="B123" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="F123" s="17" t="s">
+      <c r="F123" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="G123" s="17" t="s">
+      <c r="G123" s="39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="3:7">
-      <c r="C124" s="17" t="s">
+    <row r="124" spans="2:7">
+      <c r="B124" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="C124" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D124" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E124" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F124" s="17" t="s">
+      <c r="F124" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="G124" s="17" t="s">
+      <c r="G124" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="3:7">
-      <c r="C125" s="17" t="s">
+    <row r="125" spans="2:7">
+      <c r="B125" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C125" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E125" s="17" t="s">
+      <c r="E125" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="F125" s="17" t="s">
+      <c r="F125" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="G125" s="17" t="s">
+      <c r="G125" s="39" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="3:7">
-      <c r="C126" s="17" t="s">
+    <row r="126" spans="2:7">
+      <c r="B126" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C126" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D126" s="17" t="s">
+      <c r="D126" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E126" s="17" t="s">
+      <c r="E126" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F126" s="17" t="s">
+      <c r="F126" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G126" s="17" t="s">
+      <c r="G126" s="39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="3:7">
-      <c r="C127" s="17" t="s">
+    <row r="127" spans="2:7">
+      <c r="B127" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C127" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="D127" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E127" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F127" s="17" t="s">
+      <c r="F127" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G127" s="17" t="s">
+      <c r="G127" s="39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="3:7">
-      <c r="C128" s="17" t="s">
+    <row r="128" spans="2:7">
+      <c r="B128" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C128" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D128" s="17" t="s">
+      <c r="D128" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E128" s="17" t="s">
+      <c r="E128" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F128" s="17" t="s">
+      <c r="F128" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="G128" s="17" t="s">
+      <c r="G128" s="39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="3:7">
-      <c r="C129" s="17" t="s">
+    <row r="129" spans="2:7">
+      <c r="B129" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C129" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D129" s="17" t="s">
+      <c r="D129" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E129" s="17" t="s">
+      <c r="E129" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="F129" s="17" t="s">
+      <c r="F129" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="G129" s="17" t="s">
+      <c r="G129" s="39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="3:7">
-      <c r="C130" s="17" t="s">
+    <row r="130" spans="2:7">
+      <c r="B130" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C130" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="G130" s="17" t="s">
+      <c r="G130" s="39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="3:7">
-      <c r="C131" s="17" t="s">
+    <row r="131" spans="2:7">
+      <c r="B131" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="C131" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E131" s="17" t="s">
+      <c r="E131" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="F131" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="G131" s="17" t="s">
+      <c r="G131" s="39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="3:7">
-      <c r="C132" s="17" t="s">
+    <row r="132" spans="2:7">
+      <c r="B132" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C132" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D132" s="17" t="s">
+      <c r="D132" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="E132" s="17" t="s">
+      <c r="E132" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="F132" s="17" t="s">
+      <c r="F132" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G132" s="17" t="s">
+      <c r="G132" s="39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="3:7">
-      <c r="C133" s="17" t="s">
+    <row r="133" spans="2:7">
+      <c r="B133" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="C133" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="D133" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E133" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="F133" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="G133" s="17" t="s">
+      <c r="G133" s="39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="3:7">
-      <c r="C134" s="17" t="s">
+    <row r="134" spans="2:7">
+      <c r="B134" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="C134" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D134" s="17" t="s">
+      <c r="D134" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E134" s="17" t="s">
+      <c r="E134" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="F134" s="17" t="s">
+      <c r="F134" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="G134" s="17" t="s">
+      <c r="G134" s="39" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="3:7">
-      <c r="C135" s="17" t="s">
+    <row r="135" spans="2:7">
+      <c r="B135" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="E135" s="17" t="s">
+      <c r="E135" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F135" s="17" t="s">
+      <c r="F135" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="G135" s="17" t="s">
+      <c r="G135" s="39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="3:7">
-      <c r="C136" s="17" t="s">
+    <row r="136" spans="2:7">
+      <c r="B136" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C136" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="D136" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E136" s="17" t="s">
+      <c r="E136" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F136" s="17" t="s">
+      <c r="F136" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G136" s="17" t="s">
+      <c r="G136" s="39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="3:7">
-      <c r="C137" s="17" t="s">
+    <row r="137" spans="2:7">
+      <c r="B137" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C137" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E137" s="17" t="s">
+      <c r="E137" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="F137" s="17" t="s">
+      <c r="F137" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="G137" s="17" t="s">
+      <c r="G137" s="39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="138" spans="3:7">
-      <c r="C138" s="17" t="s">
+    <row r="138" spans="2:7">
+      <c r="B138" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="C138" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="D138" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="E138" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F138" s="17" t="s">
+      <c r="F138" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G138" s="17" t="s">
+      <c r="G138" s="39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="3:7">
-      <c r="C139" s="17" t="s">
+    <row r="139" spans="2:7">
+      <c r="B139" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="C139" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F139" s="17" t="s">
+      <c r="F139" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="G139" s="17" t="s">
+      <c r="G139" s="39" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="140" spans="3:7">
-      <c r="C140" s="17" t="s">
+    <row r="140" spans="2:7">
+      <c r="B140" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="C140" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D140" s="17" t="s">
+      <c r="D140" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="E140" s="17" t="s">
+      <c r="E140" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F140" s="17" t="s">
+      <c r="F140" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="G140" s="17" t="s">
+      <c r="G140" s="39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="3:7">
-      <c r="C141" s="17" t="s">
+    <row r="141" spans="2:7">
+      <c r="B141" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C141" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E141" s="17" t="s">
+      <c r="E141" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F141" s="17" t="s">
+      <c r="F141" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="G141" s="17" t="s">
+      <c r="G141" s="39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="142" spans="3:7">
-      <c r="C142" s="17" t="s">
+    <row r="142" spans="2:7">
+      <c r="B142" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C142" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E142" s="17" t="s">
+      <c r="E142" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F142" s="17" t="s">
+      <c r="F142" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="G142" s="17" t="s">
+      <c r="G142" s="39" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="3:7">
-      <c r="C143" s="17" t="s">
+    <row r="143" spans="2:7">
+      <c r="B143" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C143" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E143" s="17" t="s">
+      <c r="E143" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F143" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G143" s="17" t="s">
+      <c r="G143" s="39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="144" spans="3:7">
-      <c r="C144" s="17" t="s">
+    <row r="144" spans="2:7">
+      <c r="B144" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C144" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D144" s="17" t="s">
+      <c r="D144" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="E144" s="17" t="s">
+      <c r="E144" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F144" s="17" t="s">
+      <c r="F144" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="G144" s="17" t="s">
+      <c r="G144" s="39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="3:7">
-      <c r="C145" s="17" t="s">
+    <row r="145" spans="2:7">
+      <c r="B145" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C145" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="D145" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="E145" s="17" t="s">
+      <c r="E145" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="F145" s="17" t="s">
+      <c r="F145" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="G145" s="17" t="s">
+      <c r="G145" s="39" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="3:7">
-      <c r="C146" s="17" t="s">
+    <row r="146" spans="2:7">
+      <c r="B146" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C146" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D146" s="17" t="s">
+      <c r="D146" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="E146" s="17" t="s">
+      <c r="E146" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F146" s="17" t="s">
+      <c r="F146" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="G146" s="17" t="s">
+      <c r="G146" s="39" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="3:7">
-      <c r="C147" s="17" t="s">
+    <row r="147" spans="2:7">
+      <c r="B147" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C147" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D147" s="17" t="s">
+      <c r="D147" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E147" s="17" t="s">
+      <c r="E147" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="F147" s="17" t="s">
+      <c r="F147" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G147" s="17" t="s">
+      <c r="G147" s="39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="3:7">
-      <c r="C148" s="17" t="s">
+    <row r="148" spans="2:7">
+      <c r="B148" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="C148" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D148" s="17" t="s">
+      <c r="D148" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E148" s="17" t="s">
+      <c r="E148" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="17" t="s">
+      <c r="F148" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G148" s="17" t="s">
+      <c r="G148" s="39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="3:7">
-      <c r="C149" s="17" t="s">
+    <row r="149" spans="2:7">
+      <c r="B149" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="C149" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D149" s="17" t="s">
+      <c r="D149" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E149" s="17" t="s">
+      <c r="E149" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="F149" s="17" t="s">
+      <c r="F149" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="G149" s="17" t="s">
+      <c r="G149" s="39" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="3:7">
-      <c r="C150" s="17" t="s">
+    <row r="150" spans="2:7">
+      <c r="B150" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="C150" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D150" s="17" t="s">
+      <c r="D150" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E150" s="17" t="s">
+      <c r="E150" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F150" s="17" t="s">
+      <c r="F150" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="G150" s="17" t="s">
+      <c r="G150" s="39" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="3:7">
-      <c r="C151" s="17" t="s">
+    <row r="151" spans="2:7">
+      <c r="B151" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="C151" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D151" s="17" t="s">
+      <c r="D151" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E151" s="17" t="s">
+      <c r="E151" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F151" s="17" t="s">
+      <c r="F151" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="G151" s="17" t="s">
+      <c r="G151" s="39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="3:7">
-      <c r="C152" s="17" t="s">
+    <row r="152" spans="2:7">
+      <c r="B152" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C152" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D152" s="17" t="s">
+      <c r="D152" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E152" s="17" t="s">
+      <c r="E152" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="F152" s="17" t="s">
+      <c r="F152" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="G152" s="17" t="s">
+      <c r="G152" s="39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="3:7">
-      <c r="C153" s="17" t="s">
+    <row r="153" spans="2:7">
+      <c r="B153" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="C153" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D153" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="E153" s="17" t="s">
+      <c r="E153" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F153" s="17" t="s">
+      <c r="F153" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="G153" s="17" t="s">
+      <c r="G153" s="39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="154" spans="3:7">
-      <c r="C154" s="17" t="s">
+    <row r="154" spans="2:7">
+      <c r="B154" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C154" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D154" s="17" t="s">
+      <c r="D154" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="E154" s="17" t="s">
+      <c r="E154" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="F154" s="17" t="s">
+      <c r="F154" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="G154" s="17" t="s">
+      <c r="G154" s="39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="155" spans="3:7">
-      <c r="C155" s="17" t="s">
+    <row r="155" spans="2:7">
+      <c r="B155" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="C155" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D155" s="17" t="s">
+      <c r="D155" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E155" s="17" t="s">
+      <c r="E155" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="F155" s="17" t="s">
+      <c r="F155" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="G155" s="17" t="s">
+      <c r="G155" s="39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="3:7">
-      <c r="C156" s="17" t="s">
+    <row r="156" spans="2:7">
+      <c r="B156" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C156" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D156" s="17" t="s">
+      <c r="D156" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="E156" s="17" t="s">
+      <c r="E156" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F156" s="17" t="s">
+      <c r="F156" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G156" s="17" t="s">
+      <c r="G156" s="39" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="157" spans="3:7">
-      <c r="C157" s="17" t="s">
+    <row r="157" spans="2:7">
+      <c r="B157" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="C157" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D157" s="17" t="s">
+      <c r="D157" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="E157" s="17" t="s">
+      <c r="E157" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="F157" s="17" t="s">
+      <c r="F157" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="G157" s="17" t="s">
+      <c r="G157" s="39" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="158" spans="3:7">
-      <c r="C158" s="17" t="s">
+    <row r="158" spans="2:7">
+      <c r="B158" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="C158" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D158" s="17" t="s">
+      <c r="D158" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="E158" s="17" t="s">
+      <c r="E158" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F158" s="17" t="s">
+      <c r="F158" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="G158" s="17" t="s">
+      <c r="G158" s="39" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="159" spans="3:7">
-      <c r="C159" s="17" t="s">
+    <row r="159" spans="2:7">
+      <c r="B159" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="C159" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D159" s="17" t="s">
+      <c r="D159" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E159" s="17" t="s">
+      <c r="E159" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="F159" s="17" t="s">
+      <c r="F159" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="G159" s="17" t="s">
+      <c r="G159" s="39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="160" spans="3:7">
-      <c r="C160" s="17" t="s">
+    <row r="160" spans="2:7">
+      <c r="B160" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C160" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D160" s="17" t="s">
+      <c r="D160" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="E160" s="17" t="s">
+      <c r="E160" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F160" s="17" t="s">
+      <c r="F160" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="G160" s="17" t="s">
+      <c r="G160" s="39" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="161" spans="3:17">
-      <c r="C161" s="17" t="s">
+    <row r="161" spans="1:17">
+      <c r="B161" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="C161" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="D161" s="17" t="s">
+      <c r="D161" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="E161" s="17" t="s">
+      <c r="E161" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F161" s="17" t="s">
+      <c r="F161" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="G161" s="17" t="s">
+      <c r="G161" s="39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="3:17">
-      <c r="C162" s="17" t="s">
+    <row r="162" spans="1:17">
+      <c r="B162" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="C162" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D162" s="17" t="s">
+      <c r="D162" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E162" s="17" t="s">
+      <c r="E162" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="F162" s="17" t="s">
+      <c r="F162" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="G162" s="17" t="s">
+      <c r="G162" s="39" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="163" spans="3:17">
-      <c r="C163" s="17" t="s">
+    <row r="163" spans="1:17">
+      <c r="B163" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="C163" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D163" s="17" t="s">
+      <c r="D163" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E163" s="17" t="s">
+      <c r="E163" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F163" s="17" t="s">
+      <c r="F163" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G163" s="17" t="s">
+      <c r="G163" s="39" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="164" spans="3:17">
-      <c r="C164" s="17" t="s">
+    <row r="164" spans="1:17">
+      <c r="B164" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="C164" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D164" s="17" t="s">
+      <c r="D164" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="E164" s="17" t="s">
+      <c r="E164" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="F164" s="17" t="s">
+      <c r="F164" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="G164" s="17" t="s">
+      <c r="G164" s="39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="3:17">
-      <c r="C172" s="9" t="s">
+    <row r="171" spans="1:17">
+      <c r="A171" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B171" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C171" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F171" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G171" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H171" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I171" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="J171" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="K171" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="L171" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="M171" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="O171" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="P171" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q171" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="B172" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C172" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="E172" s="9" t="s">
+      <c r="E172" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F172" s="9" t="s">
+      <c r="F172" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G172" s="9" t="s">
+      <c r="G172" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H172" s="9" t="s">
+      <c r="H172" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I172" s="9" t="s">
+      <c r="I172" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J172" s="9" t="s">
+      <c r="J172" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="K172" s="9" t="s">
+      <c r="K172" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="L172" s="9" t="s">
+      <c r="L172" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M172" s="9" t="s">
+      <c r="M172" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="O172" s="4" t="s">
+      <c r="O172" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="P172" s="4" t="s">
+      <c r="P172" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q172" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="3:17">
-      <c r="C175" s="9" t="s">
+      <c r="Q172" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B174" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C174" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F174" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G174" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H174" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I174" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="J174" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="K174" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="L174" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="M174" s="41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="B175" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C175" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="E175" s="9" t="s">
+      <c r="E175" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F175" s="9" t="s">
+      <c r="F175" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G175" s="9" t="s">
+      <c r="G175" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H175" s="9" t="s">
+      <c r="H175" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I175" s="9" t="s">
+      <c r="I175" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="J175" s="9" t="s">
+      <c r="J175" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="K175" s="9" t="s">
+      <c r="K175" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="L175" s="9" t="s">
+      <c r="L175" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="M175" s="9" t="s">
+      <c r="M175" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="178" spans="3:6">
-      <c r="C178" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D178" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E178" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="3:6">
-      <c r="C179" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" spans="3:6">
-      <c r="C180" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D180" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E180" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="181" spans="3:6">
-      <c r="C181" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D181" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E181" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="3:6">
-      <c r="C182" s="18" t="s">
+    <row r="177" spans="1:6">
+      <c r="A177" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B177" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C177" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D177" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E177" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="F177" s="46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="B178" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="C178" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="B179" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="C179" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="B180" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="C180" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="B181" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C181" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="B182" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="C182" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="D182" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E182" s="18" t="s">
+      <c r="D182" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="F182" s="18" t="s">
+      <c r="F182" s="47" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="183" spans="3:6">
-      <c r="C183" s="18" t="s">
+    <row r="183" spans="1:6">
+      <c r="B183" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="C183" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E183" s="18" t="s">
+      <c r="E183" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F183" s="18" t="s">
+      <c r="F183" s="47" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="184" spans="3:6">
-      <c r="C184" s="18" t="s">
+    <row r="184" spans="1:6">
+      <c r="B184" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="C184" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E184" s="18" t="s">
+      <c r="E184" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F184" s="18" t="s">
+      <c r="F184" s="47" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="3:6">
-      <c r="C185" s="18" t="s">
+    <row r="185" spans="1:6">
+      <c r="B185" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="C185" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="D185" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E185" s="18" t="s">
+      <c r="E185" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F185" s="18" t="s">
+      <c r="F185" s="47" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="3:6">
-      <c r="C186" s="18" t="s">
+    <row r="186" spans="1:6">
+      <c r="B186" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C186" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D186" s="18" t="s">
+      <c r="D186" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E186" s="18" t="s">
+      <c r="E186" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F186" s="18" t="s">
+      <c r="F186" s="47" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="187" spans="3:6">
-      <c r="C187" s="18" t="s">
+    <row r="187" spans="1:6">
+      <c r="B187" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C187" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D187" s="18" t="s">
+      <c r="D187" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E187" s="18" t="s">
+      <c r="E187" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F187" s="18" t="s">
+      <c r="F187" s="47" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="188" spans="3:6">
-      <c r="C188" s="18" t="s">
+    <row r="188" spans="1:6">
+      <c r="B188" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C188" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="D188" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E188" s="18" t="s">
+      <c r="E188" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F188" s="18" t="s">
+      <c r="F188" s="47" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="189" spans="3:6">
-      <c r="C189" s="18" t="s">
+    <row r="189" spans="1:6">
+      <c r="B189" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C189" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="D189" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E189" s="18" t="s">
+      <c r="E189" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F189" s="18" t="s">
+      <c r="F189" s="47" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="190" spans="3:6">
-      <c r="C190" s="18" t="s">
+    <row r="190" spans="1:6">
+      <c r="B190" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="C190" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D190" s="18" t="s">
+      <c r="D190" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E190" s="18" t="s">
+      <c r="E190" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F190" s="18" t="s">
+      <c r="F190" s="47" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="3:6">
-      <c r="C191" s="18" t="s">
+    <row r="191" spans="1:6">
+      <c r="B191" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="C191" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D191" s="18" t="s">
+      <c r="D191" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E191" s="18" t="s">
+      <c r="E191" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="F191" s="18" t="s">
+      <c r="F191" s="47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="3:6">
-      <c r="C192" s="18" t="s">
+    <row r="192" spans="1:6">
+      <c r="B192" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C192" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="D192" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E192" s="18" t="s">
+      <c r="D192" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="F192" s="18" t="s">
+      <c r="F192" s="47" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="193" spans="3:7">
-      <c r="C193" s="18" t="s">
+    <row r="193" spans="1:7">
+      <c r="B193" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C193" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="D193" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E193" s="18" t="s">
+      <c r="D193" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="F193" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="194" spans="3:7">
-      <c r="C194" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E194" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F194" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" spans="3:7">
-      <c r="C198" s="4" t="s">
+      <c r="F193" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="B194" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C194" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B197" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C197" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D197" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E197" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F197" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G197" s="41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="B198" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="C198" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="D198" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E198" s="4" t="s">
+      <c r="E198" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="F198" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G198" s="4" t="s">
+      <c r="G198" s="11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="199" spans="3:7">
-      <c r="C199" s="4" t="s">
+    <row r="199" spans="1:7">
+      <c r="B199" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="C199" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D199" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E199" s="4" t="s">
+      <c r="E199" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F199" s="4" t="s">
+      <c r="F199" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G199" s="4" t="s">
+      <c r="G199" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="3:7">
-      <c r="C200" s="4" t="s">
+    <row r="200" spans="1:7">
+      <c r="B200" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="C200" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D200" s="4" t="s">
+      <c r="D200" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E200" s="4" t="s">
+      <c r="E200" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F200" s="4" t="s">
+      <c r="F200" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G200" s="4" t="s">
+      <c r="G200" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="3:7">
-      <c r="C204" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="3:7">
-      <c r="C205" s="4" t="s">
+    <row r="203" spans="1:7">
+      <c r="A203" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B203" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C203" s="41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="B204" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="48" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="B205" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="C205" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="206" spans="3:7">
-      <c r="C206" s="4" t="s">
+    <row r="206" spans="1:7">
+      <c r="B206" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="C206" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="3:3">
-      <c r="C210" s="4" t="s">
+    <row r="209" spans="1:3">
+      <c r="A209" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B209" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C209" s="50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="B210" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="C210" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="211" spans="3:3">
-      <c r="C211" s="4" t="s">
+    <row r="211" spans="1:3">
+      <c r="B211" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C211" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="212" spans="3:3">
-      <c r="C212" s="4" t="s">
+    <row r="212" spans="1:3">
+      <c r="B212" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C212" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="213" spans="3:3">
-      <c r="C213" s="4" t="s">
+    <row r="213" spans="1:3">
+      <c r="B213" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="C213" s="11" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>